--- a/medicine/Pharmacie/Johann_Jakob_Wepfer/Johann_Jakob_Wepfer.xlsx
+++ b/medicine/Pharmacie/Johann_Jakob_Wepfer/Johann_Jakob_Wepfer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Jakob Wepfer, né le 23 décembre 1620 à Schaffhouse et mort le 26 janvier 1695 (à 74 ans) dans la même ville, est un pathologiste et pharmacologue suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un juge de Schaffhouse, Johann Jakob Wepfer entame à 17 ans des études de médecine à Strasbourg, Bâle et Padoue avant de revenir, en 1647, pratiquer dans sa ville natale, où il obtient l'autorisation de réaliser des autopsies.
 Wepfer est connu pour ses travaux concernant l'anatomie vasculaire du cerveau et l'étude des maladies vasculo-cérébrales. Il est le premier médecin à émettre l'hypothèse que l'accident vasculo-cérébral est causé par un saignement du cerveau. Il note aussi que les symptômes pourraient être aussi provoqués par l'obstruction d'une artère principale qui irrigue le cerveau. Avec des dissections anatomiques, il prouve que les carotides et les artères vertébrales apportent le sang au cerveau. En 1669, il publie un traité sur les accidents vasculaires cérébraux, Apoplexie.
